--- a/tabelas/organizacoes_referentes.xlsx
+++ b/tabelas/organizacoes_referentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alvorada365-my.sharepoint.com/personal/thanizerodrigues_alvorada-rs_com_br/Documents/Área de Trabalho/Thanize/códigos/apenasteste/tabelas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alvorada365-my.sharepoint.com/personal/thanizerodrigues_alvorada-rs_com_br/Documents/Área de Trabalho/Thanize/códigos/Utilizacao-Tec-JD/tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_AD4D361C20488DEA4E38A06ECCDB6FE25BDEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A8A0FCD-D0F7-4F62-9EC2-7D41544DA761}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D361C20488DEA4E38A06ECCDB6FE25BDEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EF2C57-46FF-4C3D-AD6F-752E8E3CB37D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="138">
   <si>
     <t>Organização</t>
   </si>
@@ -447,12 +447,6 @@
   </si>
   <si>
     <t>529940</t>
-  </si>
-  <si>
-    <t>Fazenda da Lagoa - Valdinei Donato (ALVORADA SISTEMAS AGRÍCOLAS/Fazenda da Lagoa - Valdinei Donato)</t>
-  </si>
-  <si>
-    <t>434183</t>
   </si>
   <si>
     <t>Guilherme Camara URU (ALVORADA SISTEMAS AGRÍCOLAS/Guilherme Camara URU)</t>
@@ -681,13 +675,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -697,6 +684,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -716,7 +710,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7992153F-8FBA-4756-AEF9-3425C07007A3}" name="Tabela2" displayName="Tabela2" ref="A1:C98" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7992153F-8FBA-4756-AEF9-3425C07007A3}" name="Tabela2" displayName="Tabela2" ref="A1:C98" totalsRowShown="0" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C98" xr:uid="{7992153F-8FBA-4756-AEF9-3425C07007A3}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{ABE8C0B3-63CA-4DC3-885F-6800858FB082}" name="Organização" dataDxfId="2"/>
@@ -992,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C98"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1389,11 +1383,11 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>138</v>
+      <c r="A36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>40</v>
@@ -1422,11 +1416,11 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>138</v>
+      <c r="A39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>63</v>
@@ -1929,7 +1923,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>130</v>

--- a/tabelas/organizacoes_referentes.xlsx
+++ b/tabelas/organizacoes_referentes.xlsx
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tabelas/organizacoes_referentes.xlsx
+++ b/tabelas/organizacoes_referentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alvorada365-my.sharepoint.com/personal/thanizerodrigues_alvorada-rs_com_br/Documents/Área de Trabalho/Thanize/códigos/Utilizacao-Tec-JD/tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="11_AD4D361C20488DEA4E38A06ECCDB6FE25BDEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F5EF2C57-46FF-4C3D-AD6F-752E8E3CB37D}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4D361C20488DEA4E38A06ECCDB6FE25BDEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D46399-237B-44EA-B88F-71A5B209AE9E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -987,7 +987,7 @@
   <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A2" sqref="A2:A98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/tabelas/organizacoes_referentes.xlsx
+++ b/tabelas/organizacoes_referentes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alvorada365-my.sharepoint.com/personal/thanizerodrigues_alvorada-rs_com_br/Documents/Área de Trabalho/Thanize/códigos/Utilizacao-Tec-JD/tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_AD4D361C20488DEA4E38A06ECCDB6FE25BDEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D46399-237B-44EA-B88F-71A5B209AE9E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_AD4D361C20488DEA4E38A06ECCDB6FE25BDEDDA3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3FF88FBC-4775-4CA5-9EB5-B0B8B22BEA65}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,9 +173,6 @@
     <t>445776</t>
   </si>
   <si>
-    <t>Santa Leonida 2021-22 (ALVORADA SISTEMAS AGRÍCOLAS/Santa Leonida 2021-22)</t>
-  </si>
-  <si>
     <t>533541</t>
   </si>
   <si>
@@ -450,16 +447,26 @@
   </si>
   <si>
     <t>Guilherme Camara URU (ALVORADA SISTEMAS AGRÍCOLAS/Guilherme Camara URU)</t>
+  </si>
+  <si>
+    <t>Santa Leonida (ALVORADA SISTEMAS AGRÍCOLAS/Santa Leonida)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -596,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -609,6 +616,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A98"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1251,11 +1259,11 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>40</v>
@@ -1296,10 +1304,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>40</v>
@@ -1307,10 +1315,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>40</v>
@@ -1318,10 +1326,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>40</v>
@@ -1351,10 +1359,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>40</v>
@@ -1362,10 +1370,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>40</v>
@@ -1373,10 +1381,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>40</v>
@@ -1395,10 +1403,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>40</v>
@@ -1406,10 +1414,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>40</v>
@@ -1423,7 +1431,7 @@
         <v>37</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -1434,7 +1442,7 @@
         <v>11</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
@@ -1445,29 +1453,29 @@
         <v>21</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C43" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
@@ -1478,84 +1486,84 @@
         <v>23</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C46" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="C47" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="C48" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="C49" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C50" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="C51" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
@@ -1566,7 +1574,7 @@
         <v>31</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
@@ -1577,40 +1585,40 @@
         <v>44</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C54" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="C55" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="C56" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
@@ -1621,62 +1629,62 @@
         <v>29</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C58" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C59" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C60" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="C61" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C62" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
@@ -1687,29 +1695,29 @@
         <v>17</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C64" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C65" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
@@ -1720,18 +1728,18 @@
         <v>42</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="C67" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
@@ -1742,7 +1750,7 @@
         <v>39</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
@@ -1753,194 +1761,194 @@
         <v>15</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="C70" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C71" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="C72" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="C73" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C74" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C75" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C76" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C77" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C78" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="C79" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="C80" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="C81" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="C82" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="C83" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C84" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="C86" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.35">
@@ -1951,18 +1959,18 @@
         <v>27</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.35">
@@ -1973,18 +1981,18 @@
         <v>9</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C90" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.35">
@@ -1995,84 +2003,84 @@
         <v>4</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B92" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C92" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="C93" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="C94" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="C95" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="C96" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="C97" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>113</v>
-      </c>
       <c r="C98" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
